--- a/TP5/Boceto Columnas.xlsx
+++ b/TP5/Boceto Columnas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nano\Facultad\UTN\4to\SIM\TP-SIM\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BCA556-C686-45C5-A439-98041E21D45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B5D6C-B1D4-423D-80EC-A692A3B26E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Reloj (min)</t>
   </si>
@@ -69,21 +69,6 @@
     <t>Colas</t>
   </si>
   <si>
-    <t>Servidores</t>
-  </si>
-  <si>
-    <t>Estado caseta</t>
-  </si>
-  <si>
-    <t>Estado nave</t>
-  </si>
-  <si>
-    <t>Estado oficina 1</t>
-  </si>
-  <si>
-    <t>Estado oficina 2</t>
-  </si>
-  <si>
     <t>Cola de caseta</t>
   </si>
   <si>
@@ -118,6 +103,45 @@
   </si>
   <si>
     <t>Maximo tiempo entre llegadas de clientes al sistema</t>
+  </si>
+  <si>
+    <t>Estados servidores</t>
+  </si>
+  <si>
+    <t>caseta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> oficina 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> oficina 2</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Cliente 1</t>
+  </si>
+  <si>
+    <t>Cliente 2</t>
+  </si>
+  <si>
+    <t>Cliente 3</t>
+  </si>
+  <si>
+    <t>Cliente 4</t>
+  </si>
+  <si>
+    <t>Cliente n</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Hora llegada</t>
   </si>
 </sst>
 </file>
@@ -293,55 +317,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AF5"/>
+  <dimension ref="B2:AO5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,198 +673,272 @@
     <col min="27" max="27" width="12" customWidth="1"/>
     <col min="28" max="28" width="12.42578125" customWidth="1"/>
     <col min="29" max="29" width="14.5703125" customWidth="1"/>
+    <col min="30" max="30" width="13.28515625" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="5" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="4" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="21"/>
+    </row>
+    <row r="3" spans="2:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="15"/>
+      <c r="P3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="6"/>
+      <c r="U3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" s="12"/>
     </row>
-    <row r="3" spans="2:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+    <row r="4" spans="2:41" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="O4" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="1"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="2:32" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="18">
-        <v>1</v>
-      </c>
-      <c r="O4" s="18">
-        <v>2</v>
-      </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+    <row r="5" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="X3:X4"/>
+  <mergeCells count="43">
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AF2:AO2"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="T2:V2"/>
@@ -846,22 +953,17 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TP5/Boceto Columnas.xlsx
+++ b/TP5/Boceto Columnas.xlsx
@@ -8,24 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nano\Facultad\UTN\4to\SIM\TP-SIM\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62B5D6C-B1D4-423D-80EC-A692A3B26E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E531B-3771-4421-82BE-2FFF807CDBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$V$13</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>Reloj (min)</t>
   </si>
@@ -78,9 +91,6 @@
     <t>Cola de oficina</t>
   </si>
   <si>
-    <t>Contador cola nave</t>
-  </si>
-  <si>
     <t>Tiempo de permanencia en la oficina</t>
   </si>
   <si>
@@ -93,18 +103,6 @@
     <t>Tiempo de permanencia en la nave</t>
   </si>
   <si>
-    <t>Acumuladores</t>
-  </si>
-  <si>
-    <t>Contadores</t>
-  </si>
-  <si>
-    <t>Cantidad de clientes que se van del sistema porque no hay espacio en la cola</t>
-  </si>
-  <si>
-    <t>Maximo tiempo entre llegadas de clientes al sistema</t>
-  </si>
-  <si>
     <t>Estados servidores</t>
   </si>
   <si>
@@ -142,13 +140,89 @@
   </si>
   <si>
     <t>Hora llegada</t>
+  </si>
+  <si>
+    <t>Cantidad clientes con atencion caseta finalizada</t>
+  </si>
+  <si>
+    <t>Cantidad clientes con atencion nave finalizada</t>
+  </si>
+  <si>
+    <t>Metrica 2</t>
+  </si>
+  <si>
+    <t>Metrica 1</t>
+  </si>
+  <si>
+    <t>Metrica 3</t>
+  </si>
+  <si>
+    <t>Tiempo medio del cliente en la caseta</t>
+  </si>
+  <si>
+    <t>Tiempo medio del cliente en la nave</t>
+  </si>
+  <si>
+    <t>Metrica 4</t>
+  </si>
+  <si>
+    <t>Tiempo medio del cliente en la oficina</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>Metrica 5</t>
+  </si>
+  <si>
+    <t>Tiempo de permanencia en el sistema</t>
+  </si>
+  <si>
+    <t>Tiempo medio del cliente en el ITV</t>
+  </si>
+  <si>
+    <t>Metrica 6</t>
+  </si>
+  <si>
+    <t>Tiempo de permanencia en la cola de la caseta</t>
+  </si>
+  <si>
+    <t>Tiempo medio del cliente en la cola de la caseta</t>
+  </si>
+  <si>
+    <t>Metrica 7</t>
+  </si>
+  <si>
+    <t>Tiempo de permanencia en la cola de la nave</t>
+  </si>
+  <si>
+    <t>Tiempo medio del cliente en la cola de nave</t>
+  </si>
+  <si>
+    <t>Metrica 8</t>
+  </si>
+  <si>
+    <t>Maximo tiempo entre llegadas</t>
+  </si>
+  <si>
+    <t>Metrica 9</t>
+  </si>
+  <si>
+    <t>Cantidad de clientes que no entran a la cola porque esta llena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,15 +231,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -174,210 +266,214 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
+    <cellStyle name="60% - Énfasis2" xfId="2" builtinId="36"/>
+    <cellStyle name="60% - Énfasis6" xfId="3" builtinId="52"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -656,18 +752,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AO5"/>
+  <dimension ref="B2:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="19" width="15.7109375" customWidth="1"/>
     <col min="24" max="25" width="12.42578125" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
@@ -677,293 +772,435 @@
     <col min="31" max="31" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="11" t="s">
+    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="2:31" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15"/>
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="8" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="9" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="13"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" spans="2:31" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:31" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="19" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="2:31" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="21"/>
+      <c r="K12" s="5"/>
     </row>
-    <row r="3" spans="2:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF3" s="12" t="s">
+    <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO3" s="12"/>
+      <c r="D13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="2:41" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="5">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5">
-        <v>2</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
+    <row r="14" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AF2:AO2"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
+  <mergeCells count="64">
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="22" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/TP5/Boceto Columnas.xlsx
+++ b/TP5/Boceto Columnas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nano\Facultad\UTN\4to\SIM\TP-SIM\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6E531B-3771-4421-82BE-2FFF807CDBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1794AFB-5E75-4E84-844F-F8907D324D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>Tiempo medio del cliente en la oficina</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>Metrica 5</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Cantidad de clientes que no entran a la cola porque esta llena</t>
+  </si>
+  <si>
+    <t>Longitud media de la cola de la nave</t>
   </si>
 </sst>
 </file>
@@ -409,36 +409,48 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -447,19 +459,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -755,7 +755,7 @@
   <dimension ref="B2:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,292 +773,292 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
     </row>
     <row r="3" spans="2:31" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="13"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="2:31" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
     </row>
     <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8">
+      <c r="B5" s="16"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="9"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:31" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="19" t="s">
-        <v>55</v>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:31" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="4" t="s">
+      <c r="P8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>56</v>
+      <c r="R8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="9"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1076,91 +1076,81 @@
       <c r="K11" s="22"/>
     </row>
     <row r="12" spans="2:31" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="W2:AA2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1177,25 +1167,35 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="22" orientation="portrait" r:id="rId1"/>

--- a/TP5/Boceto Columnas.xlsx
+++ b/TP5/Boceto Columnas.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nano\Facultad\UTN\4to\SIM\TP-SIM\TP5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Tato\2022\SIM\TP-SIM\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1794AFB-5E75-4E84-844F-F8907D324D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64151E54-6954-4C3B-BB8B-655B908DAEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$V$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$X$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Reloj (min)</t>
   </si>
@@ -109,9 +109,6 @@
     <t>caseta</t>
   </si>
   <si>
-    <t xml:space="preserve"> nave</t>
-  </si>
-  <si>
     <t xml:space="preserve"> oficina 1</t>
   </si>
   <si>
@@ -209,6 +206,12 @@
   </si>
   <si>
     <t>Longitud media de la cola de la nave</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nave 1</t>
+  </si>
+  <si>
+    <t>nave 2</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +259,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -395,6 +404,152 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -407,12 +562,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,42 +584,94 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -752,58 +956,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AE14"/>
+  <dimension ref="B2:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="B12:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="19" width="15.7109375" customWidth="1"/>
-    <col min="24" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12.85546875" customWidth="1"/>
-    <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="9" customWidth="1"/>
+    <col min="12" max="18" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="9" customWidth="1"/>
+    <col min="20" max="21" width="15.6640625" customWidth="1"/>
+    <col min="26" max="27" width="12.44140625" customWidth="1"/>
+    <col min="28" max="28" width="12.88671875" customWidth="1"/>
+    <col min="29" max="29" width="12" customWidth="1"/>
+    <col min="30" max="30" width="12.44140625" customWidth="1"/>
+    <col min="31" max="31" width="14.5546875" customWidth="1"/>
+    <col min="32" max="32" width="13.33203125" customWidth="1"/>
+    <col min="33" max="33" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
+    <row r="2" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
     </row>
-    <row r="3" spans="2:31" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
+    <row r="3" spans="2:33" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
       <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
@@ -819,25 +1029,25 @@
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="17"/>
+      <c r="M3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="17"/>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="18"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -845,8 +1055,10 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="2:31" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:33" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
@@ -856,7 +1068,7 @@
       <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="37" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -865,7 +1077,7 @@
       <c r="G4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="37" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="10" t="s">
@@ -874,42 +1086,44 @@
       <c r="J4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="26"/>
+      <c r="M4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="X4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -917,241 +1131,270 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="2">
+    <row r="5" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="39">
         <v>1</v>
       </c>
-      <c r="O5" s="2">
+      <c r="L5" s="39">
         <v>2</v>
       </c>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="14"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="39">
+        <v>1</v>
+      </c>
+      <c r="P5" s="39">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="21"/>
     </row>
-    <row r="6" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:31" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    <row r="6" spans="2:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:33" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>54</v>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:31" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:33" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="34"/>
+      <c r="L8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="10" t="s">
+      <c r="Q8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>55</v>
+      <c r="S8" s="34"/>
+      <c r="T8" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="14"/>
+    <row r="9" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="21"/>
     </row>
-    <row r="10" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+    <row r="10" spans="2:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="2:33" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="2:31" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="13"/>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="25"/>
+      <c r="L13" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:33" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="W2:AA2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:V3"/>
+  <mergeCells count="65">
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="R8:S9"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="V3:X3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
@@ -1161,46 +1404,35 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="22" max="1048575" man="1"/>
+    <brk id="24" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/TP5/Boceto Columnas.xlsx
+++ b/TP5/Boceto Columnas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Tato\2022\SIM\TP-SIM\TP5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64151E54-6954-4C3B-BB8B-655B908DAEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF54BCB5-7923-42C4-90F6-1163592EB615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="24270" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$X$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$B$3:$X$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Reloj (min)</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>nave 2</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>Atendido en caseta</t>
+  </si>
+  <si>
+    <t>Atendido en la nave 1</t>
+  </si>
+  <si>
+    <t>Ocupada</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -562,7 +580,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -585,94 +603,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="60% - Énfasis1" xfId="1" builtinId="32"/>
@@ -956,16 +982,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AG14"/>
+  <dimension ref="A2:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="B12:C13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="9" customWidth="1"/>
     <col min="12" max="18" width="15.6640625" customWidth="1"/>
@@ -981,73 +1007,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
     </row>
     <row r="3" spans="2:33" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17" t="s">
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17" t="s">
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="18"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="32"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -1059,69 +1085,69 @@
       <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="2:33" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="10" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="Y4" s="1"/>
@@ -1135,276 +1161,463 @@
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="39">
+      <c r="B5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="13">
         <v>1</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="13">
         <v>2</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="39">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="13">
         <v>1</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="13">
         <v>2</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="21"/>
-    </row>
-    <row r="6" spans="2:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:33" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="26"/>
+    </row>
+    <row r="6" spans="2:33" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="40">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="40">
+        <v>5</v>
+      </c>
+      <c r="E6" s="41">
+        <v>5</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>0.54</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="43">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10">
+        <v>9</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="J8" s="10">
+        <v>6</v>
+      </c>
+      <c r="K8" s="10">
+        <v>130</v>
+      </c>
+      <c r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>14</v>
+      </c>
+      <c r="K9" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="10">
+        <v>13</v>
+      </c>
+      <c r="L10" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="28" t="s">
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28" t="s">
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="30"/>
-      <c r="O7" s="28" t="s">
+      <c r="N11" s="22"/>
+      <c r="O11" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="28" t="s">
+      <c r="P11" s="22"/>
+      <c r="Q11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="7" t="s">
+      <c r="R11" s="21"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="8" t="s">
+      <c r="U11" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:33" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="15" t="s">
+    <row r="12" spans="2:33" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E12" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F12" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G12" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I12" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J12" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="31" t="s">
+      <c r="K12" s="17"/>
+      <c r="L12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="R12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="31" t="s">
+      <c r="S12" s="17"/>
+      <c r="T12" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U12" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="21"/>
-    </row>
-    <row r="10" spans="2:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="12" t="s">
+    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="30"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="2:33" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40">
+        <v>0</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+    </row>
+    <row r="15" spans="2:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40">
+        <v>5</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+    </row>
+    <row r="16" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="2:33" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="15" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
+      <c r="I18" s="27"/>
+      <c r="J18" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+      <c r="K18" s="23"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="4" t="s">
+      <c r="K19" s="11"/>
+      <c r="L19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:33" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="R8:S9"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:Q5"/>
@@ -1414,20 +1627,47 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="U12:U13"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="T12:T13"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="22" orientation="portrait" r:id="rId1"/>
